--- a/src/assets/files/Template Bulk Disbursement PT. Ezeelink Indonesia.xlsx
+++ b/src/assets/files/Template Bulk Disbursement PT. Ezeelink Indonesia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ezeelink\PaymentGatewayPortalGit\PaymentGatewayPortal\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D58AA4-7067-4E7D-8821-1C4261F4502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A184B68-5156-4184-971F-DC86FCE45CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="11700" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Bulk duplikat Disburse" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Bank Tujuan*</t>
-  </si>
-  <si>
-    <t>Cabang (Khusus Non-BCA)*</t>
   </si>
   <si>
     <t>No. Rekening Tujuan*</t>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>Catatan</t>
+  </si>
+  <si>
+    <t>Cabang*</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/files/Template Bulk Disbursement PT. Ezeelink Indonesia.xlsx
+++ b/src/assets/files/Template Bulk Disbursement PT. Ezeelink Indonesia.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ezeelink\PaymentGatewayPortalGit\PaymentGatewayPortal\src\assets\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A184B68-5156-4184-971F-DC86FCE45CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6830"/>
   </bookViews>
   <sheets>
     <sheet name="Template Bulk duplikat Disburse" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -23,6 +17,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Bank Tujuan*</t>
+  </si>
+  <si>
+    <t>Cabang*</t>
   </si>
   <si>
     <t>No. Rekening Tujuan*</t>
@@ -39,42 +36,69 @@
   <si>
     <t>Catatan</t>
   </si>
-  <si>
-    <t>Cabang*</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,7 +106,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,102 +114,81 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,175 +201,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -376,6 +392,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -401,7 +432,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,15 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -460,17 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,107 +502,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -635,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -668,26 +708,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -720,23 +743,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -878,60 +884,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.0909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8909090909091" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6636363636364" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.89090909090909" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>